--- a/pandas_library/files/Book8.xlsx
+++ b/pandas_library/files/Book8.xlsx
@@ -459,7 +459,7 @@
         <v>0.8599999999999999</v>
       </c>
       <c r="E2" s="2">
-        <v>45131.48333333333</v>
+        <v>45131.47916666666</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -479,7 +479,7 @@
         <v>0.8599999999999999</v>
       </c>
       <c r="E3" s="2">
-        <v>45132.525</v>
+        <v>45132</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -499,7 +499,7 @@
         <v>-1.14</v>
       </c>
       <c r="E4" s="2">
-        <v>45133.56666666667</v>
+        <v>45133</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -519,7 +519,7 @@
         <v>-1.14</v>
       </c>
       <c r="E5" s="2">
-        <v>45134.60833333333</v>
+        <v>45134</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -539,7 +539,7 @@
         <v>-0.1400000000000001</v>
       </c>
       <c r="E6" s="2">
-        <v>45135.65</v>
+        <v>45135</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -559,7 +559,7 @@
         <v>0.8599999999999999</v>
       </c>
       <c r="E7" s="2">
-        <v>45136.69166666667</v>
+        <v>45136</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -684,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>45131.48333333333</v>
+        <v>45131.47916666666</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>45132.525</v>
+        <v>45132</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -706,7 +706,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>45133.56666666667</v>
+        <v>45133</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -717,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>45134.60833333333</v>
+        <v>45134</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -728,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>45135.65</v>
+        <v>45135</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>45136.69166666667</v>
+        <v>45136</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>

--- a/pandas_library/files/Book8.xlsx
+++ b/pandas_library/files/Book8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>string</t>
   </si>
@@ -24,34 +24,70 @@
     <t>integer</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>the fat black cat</t>
+  </si>
+  <si>
+    <t>sat on the mat</t>
+  </si>
+  <si>
+    <t>twinkle, twinkle</t>
+  </si>
+  <si>
+    <t>little star</t>
+  </si>
+  <si>
+    <t>how I wonder</t>
+  </si>
+  <si>
+    <t>what you are</t>
+  </si>
+  <si>
+    <t>11:36:00</t>
+  </si>
+  <si>
+    <t>12:36:00</t>
+  </si>
+  <si>
+    <t>13:36:00</t>
+  </si>
+  <si>
+    <t>14:36:00</t>
+  </si>
+  <si>
+    <t>15:36:00</t>
+  </si>
+  <si>
+    <t>16:36:00</t>
+  </si>
+  <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>floatingpoint</t>
-  </si>
-  <si>
-    <t>datetime</t>
+    <t>date</t>
   </si>
   <si>
     <t>category</t>
   </si>
   <si>
-    <t>the fat black cat</t>
-  </si>
-  <si>
-    <t>sat on the mat</t>
-  </si>
-  <si>
-    <t>twinkle, twinkle</t>
-  </si>
-  <si>
-    <t>little star</t>
-  </si>
-  <si>
-    <t>how I wonder</t>
-  </si>
-  <si>
-    <t>what you are</t>
+    <t>24/07/2023</t>
+  </si>
+  <si>
+    <t>25/07/2023</t>
+  </si>
+  <si>
+    <t>26/07/2023</t>
+  </si>
+  <si>
+    <t>27/07/2023</t>
+  </si>
+  <si>
+    <t>28/07/2023</t>
+  </si>
+  <si>
+    <t>29/07/2023</t>
   </si>
   <si>
     <t>A</t>
@@ -64,9 +100,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -119,12 +152,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,13 +451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,134 +467,71 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.8599999999999999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45131.47916666666</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.8599999999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45132</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>-1.14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45133</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>-1.14</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45134</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45135</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0.8599999999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45136</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -586,12 +555,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -602,7 +571,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -613,7 +582,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -624,7 +593,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -635,7 +604,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -646,7 +615,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -673,76 +642,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45131.47916666666</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45132</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45133</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45134</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45135</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45136</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_library/files/Book8.xlsx
+++ b/pandas_library/files/Book8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>string</t>
   </si>
@@ -45,24 +45,6 @@
     <t>what you are</t>
   </si>
   <si>
-    <t>11:36:00</t>
-  </si>
-  <si>
-    <t>12:36:00</t>
-  </si>
-  <si>
-    <t>13:36:00</t>
-  </si>
-  <si>
-    <t>14:36:00</t>
-  </si>
-  <si>
-    <t>15:36:00</t>
-  </si>
-  <si>
-    <t>16:36:00</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
@@ -70,24 +52,6 @@
   </si>
   <si>
     <t>category</t>
-  </si>
-  <si>
-    <t>24/07/2023</t>
-  </si>
-  <si>
-    <t>25/07/2023</t>
-  </si>
-  <si>
-    <t>26/07/2023</t>
-  </si>
-  <si>
-    <t>27/07/2023</t>
-  </si>
-  <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>29/07/2023</t>
   </si>
   <si>
     <t>A</t>
@@ -100,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -152,11 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,8 +444,8 @@
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2" s="2">
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -486,8 +455,8 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3" s="2">
+        <v>0.525</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -497,8 +466,8 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4" s="2">
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -508,8 +477,8 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
+      <c r="C5" s="2">
+        <v>0.6083333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -519,8 +488,8 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="C6" s="2">
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -530,8 +499,8 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="C7" s="2">
+        <v>0.6916666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -642,76 +611,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
+      <c r="B2" s="3">
+        <v>45131.47916666666</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="B3" s="3">
+        <v>45132</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="B4" s="3">
+        <v>45133</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
+      <c r="B5" s="3">
+        <v>45134</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
+      <c r="B6" s="3">
+        <v>45135</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
+      <c r="B7" s="3">
+        <v>45136</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
